--- a/data/species_distributions/processed/seabird_codes.xlsx
+++ b/data/species_distributions/processed/seabird_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/species_distributions/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A494F73-FF48-454B-9F77-91C84C5FFE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0563608-E7DE-D64E-B1A1-282F98D29985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23740" yWindow="3540" windowWidth="28040" windowHeight="17440" xr2:uid="{14FED173-F629-8145-B39B-52A4C822136B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{14FED173-F629-8145-B39B-52A4C822136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>laal</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>Black storm-petrel</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Leach's storm petrel</t>
+  </si>
+  <si>
+    <t>empty and duplicate; delete</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9D7F9B-3C70-8D44-90D2-83C2148955F0}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,15 +579,18 @@
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -594,7 +606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -602,7 +614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -610,7 +622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -618,7 +630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -626,7 +638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -634,7 +646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -642,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -650,7 +662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -658,7 +670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -666,7 +678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -674,7 +686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -682,7 +694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -690,7 +702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -698,7 +710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -706,17 +718,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -724,7 +745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -732,7 +753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -740,7 +761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -748,7 +769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -756,7 +777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -764,7 +785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -772,7 +793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -780,7 +801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
